--- a/biology/Zoologie/Galerie_des_Geometridae_de_France/Galerie_des_Geometridae_de_France.xlsx
+++ b/biology/Zoologie/Galerie_des_Geometridae_de_France/Galerie_des_Geometridae_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Galerie d'identification visuelle des Geometridae de France.</t>
@@ -511,7 +523,9 @@
           <t>Abraxas</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Abraxas (Abraxas) grossulariata  (Linnaeus, 1758)
@@ -544,7 +558,9 @@
           <t>Agriopis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Agriopis marginaria   (Fabricius, 1776)
@@ -576,7 +592,9 @@
           <t>Angerona</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Angerona prunaria   (Linnaeus, 1758)  type orange
@@ -609,7 +627,9 @@
           <t>Apeira</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Apeira syringaria   (Linnaeus, 1758)
@@ -641,7 +661,9 @@
           <t>Aplocera</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Aplocera plagiata  (Linnaeus, 1758)
@@ -673,7 +695,9 @@
           <t>Ascotis</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ascotis selenaria  (Denis &amp; Schiffermüller, 1775)
@@ -705,7 +729,9 @@
           <t>Biston</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Biston betularia  (Linnaeus, 1758)
@@ -738,7 +764,9 @@
           <t>Cabera</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cabera exanthemata (Scopoli, 1763)
@@ -771,7 +799,9 @@
           <t>Campaea</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Campaea margaritaria (Linnaeus, 1761)
@@ -803,7 +833,9 @@
           <t>Camptogramma</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Camptogramma bilineata  (Linnaeus, 1758)
@@ -835,7 +867,9 @@
           <t>Chiasmia</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Chiasmia clathrata  (Linnaeus, 1758)
@@ -867,7 +901,9 @@
           <t>Chloroclysta</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Chloroclysta siterata  (Hufnagel, 1767)
@@ -899,7 +935,9 @@
           <t>Chloroclystis</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Chloroclystis v-ata  (Haworth, 1809)
@@ -931,7 +969,9 @@
           <t>Cidaria</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cidaria fulvata  (Forster, 1771)
@@ -963,7 +1003,9 @@
           <t>Colostygia</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Colostygia pectinataria  (Knoch, 1781)
@@ -995,7 +1037,9 @@
           <t>Colotois</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Colotois pennaria  (Linnaeus, 1761)
@@ -1027,7 +1071,9 @@
           <t>Cosmorhoe</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cosmorhoe ocellata  (Linnaeus, 1761)
@@ -1059,7 +1105,9 @@
           <t>Cyclophora</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cyclophora (Codonia) punctaria  (Linnaeus, 1758)
@@ -1091,7 +1139,9 @@
           <t>Dysstroma</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Dysstroma truncata  (Hufnagel, 1767)
@@ -1123,7 +1173,9 @@
           <t>Ecliptopera</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ecliptopera capitata  (Herrich-Schäffer, 1839)
@@ -1156,7 +1208,9 @@
           <t>Ectropis</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ectropis crepuscularia  (Denis &amp; Schiffermüller, 1775)
@@ -1188,7 +1242,9 @@
           <t>Ematurga</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ematurga atomaria  (Linnaeus, 1758)
@@ -1220,7 +1276,9 @@
           <t>Epirrhoe</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Epirrhoe alternata  (Müller, 1764)
@@ -1252,7 +1310,9 @@
           <t>Epirrita</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Epirrita autumnata   (Borkhausen, 1794)
@@ -1284,7 +1344,9 @@
           <t>Erannis</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Erannis defoliaria   (Clerck, 1759)
@@ -1316,7 +1378,9 @@
           <t>Eulithis</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Eulithis mellinata  (Fabricius, 1787)
@@ -1349,7 +1413,9 @@
           <t>Euphyia</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Euphyia frustata  (Treitschke, 1828)
@@ -1381,7 +1447,9 @@
           <t>Eupithecia</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Eupithecia abbreviata  Stephens, 1831
@@ -1417,7 +1485,9 @@
           <t>Geometra</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Geometra papilionaria  (Linnaeus, 1758)
@@ -1449,7 +1519,9 @@
           <t>Gymnoscelis</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Gymnoscelis rufifasciata  (Haworth, 1809)
@@ -1481,7 +1553,9 @@
           <t>Hemistola</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Hemistola chrysoprasaria  (Esper, 1794)
@@ -1513,7 +1587,9 @@
           <t>Hemithea</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Hemithea aestivaria  (Hübner, 1789)
@@ -1545,7 +1621,9 @@
           <t>Horisme</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Horisme corticata  (Treitschke, 1835)
@@ -1578,7 +1656,9 @@
           <t>Hypomecis</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Hypomecis roboraria  (Denis &amp; Schiffermüller, 1775)
@@ -1611,7 +1691,9 @@
           <t>Idaea</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Idaea aversata  (Linnaeus, 1758)
@@ -1650,7 +1732,9 @@
           <t>Ligdia</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ligdia adustata  (Denis &amp; Schiffermüller, 1775)
@@ -1682,7 +1766,9 @@
           <t>Lomaspilis</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Lomaspilis marginata  (Linnaeus, 1758)
@@ -1714,7 +1800,9 @@
           <t>Lomographa</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Lomographa bimaculata  (Fabricius, 1775)
@@ -1747,7 +1835,9 @@
           <t>Lycia</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Lycia hirtaria  (Clerck, 1795)
@@ -1779,7 +1869,9 @@
           <t>Macaria</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Macaria notata  (Linnaeus, 1758)
@@ -1811,7 +1903,9 @@
           <t>Melanthia</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Melanthia procellata (Denis &amp; Schiffermüller, 1775)
@@ -1843,7 +1937,9 @@
           <t>Operophtera</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Operophtera brumata  (Linnaeus, 1758)
@@ -1875,7 +1971,9 @@
           <t>Opisthograptis</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Opisthograptis luteolata  (Linnaeus, 1758)
@@ -1907,7 +2005,9 @@
           <t>Ourapteryx</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ourapteryx sambucaria  (Linnaeus, 1758)
@@ -1939,7 +2039,9 @@
           <t>Pasiphila</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Pasiphila rectangulata  (Linnaeus, 1758)
@@ -1971,7 +2073,9 @@
           <t>Pelurga</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Pelurga comitata  (Linnaeus, 1758)
@@ -2003,7 +2107,9 @@
           <t>Peribatodes</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Peribatodes rhomboidaria  (Denis &amp; Schiffermüller, 1775)
@@ -2036,7 +2142,9 @@
           <t>Perizoma</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Perizoma alchemillata  (Linnaeus, 1758)
@@ -2068,7 +2176,9 @@
           <t>Petrophora</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Petrophora chlorosata  (Scopoli, 1763)
@@ -2100,7 +2210,9 @@
           <t>Plemyria</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Plemyria rubiginata  (Denis &amp; schiffermüller, 1775)
@@ -2132,7 +2244,9 @@
           <t>Pseudopanthera</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Pseudopanthera macularia  (Linnaeus, 1758)
@@ -2164,7 +2278,9 @@
           <t>Rheumaptera</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Rheumaptera hastata  (Linnaeus, 1758)
@@ -2196,7 +2312,9 @@
           <t>Scopula</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Scopula (Scopula) decorata   (Denis &amp; Schiffermüller, 1775)
@@ -2230,7 +2348,9 @@
           <t>Scotopteryx</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Scotopteryx chenopodiata  (Linnaeus, 1758)
@@ -2262,7 +2382,9 @@
           <t>Selenia</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Selenia dentaria   (Fabricius, 1775)
@@ -2295,7 +2417,9 @@
           <t>Siona</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Siona lineata (Scopoli, 1763)
@@ -2327,7 +2451,9 @@
           <t>Thera</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Thera britannica  (Turner, 1925)
@@ -2360,7 +2486,9 @@
           <t>Timandra</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Timandra comae  Schmidt, 1931
@@ -2392,7 +2520,9 @@
           <t>Xanthorhoe</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Xanthorhoe biriviata  (Borkhausen, 1794)
